--- a/uploads/Student Upload.xlsx
+++ b/uploads/Student Upload.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\csselmerv2\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\ICC_STUDENT_PORTAL\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F408E12-CB39-4384-998A-3650A3370360}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="21600" windowHeight="11220" xr2:uid="{A52EEB49-0251-47E9-A3F3-5344218FFD03}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="21600" windowHeight="11220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Student Number</t>
   </si>
@@ -47,11 +46,26 @@
   <si>
     <t>Year Level</t>
   </si>
+  <si>
+    <t>0000-2000</t>
+  </si>
+  <si>
+    <t>clark</t>
+  </si>
+  <si>
+    <t>asperela</t>
+  </si>
+  <si>
+    <t>tumbali</t>
+  </si>
+  <si>
+    <t>c@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,16 +504,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FBD5AB-B7B3-4921-BB81-3E183666059E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="17.28515625" customWidth="1"/>
+    <col min="1" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -526,16 +542,33 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5">
+        <v>9090909</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -812,16 +845,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4FB31D-5B14-4768-88FE-3658C4DCD67E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c1b13bc6-989b-41f0-bc2e-e31d64cd0b49"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c1b13bc6-989b-41f0-bc2e-e31d64cd0b49"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3f06cf47-f4ec-41cf-b18d-cd4ccef3ffc6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
